--- a/codebook_for_Labels.xlsx
+++ b/codebook_for_Labels.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="210">
   <si>
     <t>SAS Variable Name</t>
   </si>
@@ -58,6 +58,9 @@
     <t>KWHCFAN</t>
   </si>
   <si>
+    <t>KWHCOK</t>
+  </si>
+  <si>
     <t>KWHCOL</t>
   </si>
   <si>
@@ -67,9 +70,6 @@
     <t>KWHDHUM</t>
   </si>
   <si>
-    <t>KWHDWH</t>
-  </si>
-  <si>
     <t>KWHEVAPCOL</t>
   </si>
   <si>
@@ -136,6 +136,9 @@
     <t>BTUELDWH</t>
   </si>
   <si>
+    <t>BTUELEVAPCOL</t>
+  </si>
+  <si>
     <t>BTUELFRZ</t>
   </si>
   <si>
@@ -187,6 +190,9 @@
     <t>BTUNGCOK</t>
   </si>
   <si>
+    <t>BTUNGNEC</t>
+  </si>
+  <si>
     <t>BTUNGSPH</t>
   </si>
   <si>
@@ -202,6 +208,9 @@
     <t>TOTALBTUCOK</t>
   </si>
   <si>
+    <t>TOTALBTUHTB</t>
+  </si>
+  <si>
     <t>TOTALBTUPL</t>
   </si>
   <si>
@@ -223,6 +232,9 @@
     <t>DOLELCDR</t>
   </si>
   <si>
+    <t>DOLELCFAN</t>
+  </si>
+  <si>
     <t>DOLELCOK</t>
   </si>
   <si>
@@ -232,12 +244,12 @@
     <t>DOLELDWH</t>
   </si>
   <si>
-    <t>DOLELEVAPCOL</t>
-  </si>
-  <si>
     <t>DOLELFRZ</t>
   </si>
   <si>
+    <t>DOLELHTBPMP</t>
+  </si>
+  <si>
     <t>DOLELHUM</t>
   </si>
   <si>
@@ -262,6 +274,9 @@
     <t>DOLELRFG2</t>
   </si>
   <si>
+    <t>DOLELSPH</t>
+  </si>
+  <si>
     <t>DOLELTV1</t>
   </si>
   <si>
@@ -307,6 +322,9 @@
     <t>TOTALDOLNEC</t>
   </si>
   <si>
+    <t>TOTALDOLPL</t>
+  </si>
+  <si>
     <t>TOTALDOLSPH</t>
   </si>
   <si>
@@ -343,6 +361,9 @@
     <t>Electricity usage for ceiling fans, in kilowatthours, 2015</t>
   </si>
   <si>
+    <t>Electricity usage for cooking (stoves, cooktops, and ovens), in kilowatthours, 2015</t>
+  </si>
+  <si>
     <t>Electricity usage for air conditioning (central systems and individual units), in kilowatthours, 2015</t>
   </si>
   <si>
@@ -352,9 +373,6 @@
     <t>Electricity usage for dehumidifiers, in kilowatthours, 2015</t>
   </si>
   <si>
-    <t>Electricity usage for dishwashers, in kilowatthours, 2015</t>
-  </si>
-  <si>
     <t>Electricity usage for evaporative coolers, in kilowatthours, 2015</t>
   </si>
   <si>
@@ -421,6 +439,9 @@
     <t>Electricity usage for dishwashers, in thousand Btu, 2015</t>
   </si>
   <si>
+    <t>Electricity usage for evaporative coolers, in thousand Btu, 2015</t>
+  </si>
+  <si>
     <t>Electricity usage for freezers, in thousand Btu, 2015</t>
   </si>
   <si>
@@ -472,6 +493,9 @@
     <t>Natural gas usage for cooking (stoves, cooktops, and ovens), in thousand Btu, 2015</t>
   </si>
   <si>
+    <t>Natural gas usage for other devices and purposes not elsewhere classified, in thousand Btu, 2015</t>
+  </si>
+  <si>
     <t>Natural gas usage for space heating, main and secondary, in thousand Btu, 2015</t>
   </si>
   <si>
@@ -487,6 +511,9 @@
     <t>Total usage for cooking (stoves, cooktops, and ovens), in thousand Btu, 2015</t>
   </si>
   <si>
+    <t>Total usage for hot tub pumps and heaters, in thousand Btu, 2015</t>
+  </si>
+  <si>
     <t>Total usage for swimming pool pumps and heaters, in thousand Btu, 2015</t>
   </si>
   <si>
@@ -508,6 +535,9 @@
     <t>Electricity cost for clothes dryers, in dollars, 2015</t>
   </si>
   <si>
+    <t>Electricity cost for ceiling fans, in dollars, 2015</t>
+  </si>
+  <si>
     <t>Electricity cost for cooking (stoves, cooktops, and ovens), in dollars, 2015</t>
   </si>
   <si>
@@ -517,12 +547,12 @@
     <t>Electricity cost for dishwashers, in dollars, 2015</t>
   </si>
   <si>
-    <t>Electricity cost for evaporative coolers, in dollars, 2015</t>
-  </si>
-  <si>
     <t>Electricity cost for freezers, in dollars, 2015</t>
   </si>
   <si>
+    <t>Electricity cost for hot tub pumps, in dollars, 2015</t>
+  </si>
+  <si>
     <t>Electricity cost for humidifiers, in dollars, 2015</t>
   </si>
   <si>
@@ -547,6 +577,9 @@
     <t>Electricity cost for second refrigerators, in dollars, 2015</t>
   </si>
   <si>
+    <t>Electricity cost for space heating, main and secondary, in dollars, 2015</t>
+  </si>
+  <si>
     <t>Electricity cost for first televisions, in dollars, 2015</t>
   </si>
   <si>
@@ -590,6 +623,9 @@
   </si>
   <si>
     <t>Total cost for other devices and purposes not elsewhere classified, in thousand Btu, 2015</t>
+  </si>
+  <si>
+    <t>Total cost for swimming pool pumps and heaters, in dollars, 2015</t>
   </si>
   <si>
     <t>Total cost for space heating, main and secondary, in dollars, 2015</t>
@@ -965,7 +1001,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -993,13 +1029,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="E2">
-        <v>10.22897530597952</v>
+        <v>16.53196850846145</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1010,13 +1046,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="E3">
-        <v>29.8889779188081</v>
+        <v>10.63117292809777</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1027,13 +1063,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="E4">
-        <v>10.98805640827473</v>
+        <v>27.88221285540843</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1044,13 +1080,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="E5">
-        <v>4.922150247910842</v>
+        <v>14.75801061662867</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1061,13 +1097,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="E6">
-        <v>23.83381308871429</v>
+        <v>4.615468649556479</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1078,13 +1114,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E7">
-        <v>3.185180500941852</v>
+        <v>3.454042292645151</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1095,13 +1131,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E8">
-        <v>8.017842153908381</v>
+        <v>6.598757437590988</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1112,13 +1148,13 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E9">
-        <v>6.988046619685815</v>
+        <v>5.339832872415527</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1129,13 +1165,13 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E10">
-        <v>9.877480187875243</v>
+        <v>5.576592384840915</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1146,13 +1182,13 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E11">
-        <v>3.958212373902212</v>
+        <v>13.9925750440059</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1163,13 +1199,13 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E12">
-        <v>3.347460153340445</v>
+        <v>6.567620362076829</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1180,13 +1216,13 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E13">
-        <v>5.040374353450959</v>
+        <v>7.639961039078355</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1197,13 +1233,13 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E14">
-        <v>18.63365416477363</v>
+        <v>5.339603544822155</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1214,13 +1250,13 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D15" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E15">
-        <v>6.445954832521311</v>
+        <v>15.1198483944725</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1231,13 +1267,13 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D16" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E16">
-        <v>16.10097479806593</v>
+        <v>4.380846223170284</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1248,13 +1284,13 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E17">
-        <v>6.165387414140363</v>
+        <v>4.196810935408633</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1265,13 +1301,13 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E18">
-        <v>9.496573453193552</v>
+        <v>2.081433880625416</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1282,13 +1318,13 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E19">
-        <v>11.48645502780039</v>
+        <v>6.126474681942779</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1299,13 +1335,13 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E20">
-        <v>16.74810101329044</v>
+        <v>7.073761671004353</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1316,13 +1352,13 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D21" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E21">
-        <v>16.0482256830547</v>
+        <v>6.6565778787724</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1333,13 +1369,13 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D22" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E22">
-        <v>4.128450694187206</v>
+        <v>1.966828451683339</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1350,13 +1386,13 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D23" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E23">
-        <v>1.934262136214491</v>
+        <v>16.40757320248946</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1367,13 +1403,13 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D24" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E24">
-        <v>16.5958857552368</v>
+        <v>3.043966915575286</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1384,13 +1420,13 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D25" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E25">
-        <v>15.49621481589655</v>
+        <v>8.773666159587162</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1401,13 +1437,13 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D26" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E26">
-        <v>8.89517241832927</v>
+        <v>13.57556358254994</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1418,13 +1454,13 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D27" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E27">
-        <v>2.649502501074312</v>
+        <v>10.15939202938236</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1435,13 +1471,13 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D28" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E28">
-        <v>8.456273119688321</v>
+        <v>14.46787863590146</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1452,13 +1488,13 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D29" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E29">
-        <v>4.342733857691716</v>
+        <v>4.792850187267487</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1469,13 +1505,13 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D30" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E30">
-        <v>2.458013077807994</v>
+        <v>4.131358830462771</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1486,13 +1522,13 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D31" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E31">
-        <v>3.532410736987737</v>
+        <v>5.267904952975245</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1503,13 +1539,13 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D32" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E32">
-        <v>4.380158869141618</v>
+        <v>7.0938626159677</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1520,13 +1556,13 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D33" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E33">
-        <v>8.190451867707138</v>
+        <v>10.36880770237273</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1537,13 +1573,13 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D34" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E34">
-        <v>7.934381166743604</v>
+        <v>8.88412890287232</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1554,13 +1590,13 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D35" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E35">
-        <v>2.776887005713798</v>
+        <v>7.040677958308472</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1571,13 +1607,13 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D36" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E36">
-        <v>7.390716102817153</v>
+        <v>10.24876869943779</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1588,13 +1624,13 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D37" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E37">
-        <v>2.811965961865579</v>
+        <v>9.720995085955112</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1605,13 +1641,13 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D38" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E38">
-        <v>21.24696956828074</v>
+        <v>7.958703501832935</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1622,13 +1658,13 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D39" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E39">
-        <v>9.832232193603668</v>
+        <v>4.613726105622824</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1639,13 +1675,13 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D40" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E40">
-        <v>9.82532094478039</v>
+        <v>13.48823753732725</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1656,13 +1692,13 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D41" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E41">
-        <v>5.957226000180904</v>
+        <v>14.47592678039202</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1673,13 +1709,13 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D42" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E42">
-        <v>3.752453810193274</v>
+        <v>2.911675825116502</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1690,13 +1726,13 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D43" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E43">
-        <v>20.40477752535913</v>
+        <v>8.880378581021287</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1707,13 +1743,13 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D44" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E44">
-        <v>4.526596427719993</v>
+        <v>11.19085299543423</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1724,13 +1760,13 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D45" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E45">
-        <v>1.934823778721426</v>
+        <v>7.018462287163237</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1741,13 +1777,13 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D46" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E46">
-        <v>2.096957856816515</v>
+        <v>8.460503069182375</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1758,13 +1794,13 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D47" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E47">
-        <v>5.971173070656334</v>
+        <v>4.094996853361666</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1775,13 +1811,13 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D48" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E48">
-        <v>17.83994671464619</v>
+        <v>4.742910796405566</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1792,13 +1828,13 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D49" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E49">
-        <v>11.25061607603403</v>
+        <v>23.60997417905342</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1809,13 +1845,13 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D50" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E50">
-        <v>10.70664953867266</v>
+        <v>11.79377567664239</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1826,13 +1862,13 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D51" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E51">
-        <v>4.035221020330551</v>
+        <v>10.90278692668633</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1843,13 +1879,13 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D52" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E52">
-        <v>5.861587777630161</v>
+        <v>7.077807212684411</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1860,13 +1896,13 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D53" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E53">
-        <v>6.119142703976663</v>
+        <v>6.998236260960613</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1877,13 +1913,13 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D54" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E54">
-        <v>3.930219866819579</v>
+        <v>6.201127347786707</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1894,13 +1930,13 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D55" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E55">
-        <v>4.403367457807986</v>
+        <v>1.8070289771078</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1911,13 +1947,13 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D56" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E56">
-        <v>10.32730354352844</v>
+        <v>11.59142501576593</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1928,13 +1964,13 @@
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D57" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E57">
-        <v>3.446706870135067</v>
+        <v>4.558421279687572</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1945,13 +1981,13 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D58" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E58">
-        <v>5.638043662124251</v>
+        <v>10.10067958649435</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1962,13 +1998,13 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D59" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E59">
-        <v>7.642486932806934</v>
+        <v>2.975993341364646</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1979,13 +2015,13 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D60" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E60">
-        <v>5.884753808578908</v>
+        <v>5.017029137721867</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1996,13 +2032,13 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D61" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E61">
-        <v>2.673922947417967</v>
+        <v>7.545182957083519</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2013,13 +2049,13 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D62" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E62">
-        <v>8.788286229357226</v>
+        <v>9.297902304182994</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2030,13 +2066,13 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D63" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E63">
-        <v>7.508510000344362</v>
+        <v>10.48762163292671</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2047,13 +2083,13 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D64" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E64">
-        <v>18.72870211568218</v>
+        <v>5.782782525440471</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2064,13 +2100,13 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D65" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E65">
-        <v>14.53332846105507</v>
+        <v>4.55274907199541</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2081,13 +2117,13 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D66" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="E66">
-        <v>9.11254409333351</v>
+        <v>17.07639577767686</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2098,13 +2134,13 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D67" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E67">
-        <v>8.524052286763308</v>
+        <v>15.50399681158785</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2115,13 +2151,13 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D68" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E68">
-        <v>9.403941479593774</v>
+        <v>26.00700254585488</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2132,13 +2168,13 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D69" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E69">
-        <v>24.44155986776051</v>
+        <v>8.185808024452443</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2149,13 +2185,13 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D70" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E70">
-        <v>12.59570784352701</v>
+        <v>5.178703386593363</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2166,13 +2202,13 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D71" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E71">
-        <v>8.992997904003296</v>
+        <v>13.4977812434402</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2183,13 +2219,13 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D72" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E72">
-        <v>7.07536319070468</v>
+        <v>15.72050774295188</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2200,13 +2236,13 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D73" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E73">
-        <v>9.119082863279781</v>
+        <v>9.104894280627562</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2217,13 +2253,13 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D74" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E74">
-        <v>5.416112785984694</v>
+        <v>6.091784629662858</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2234,13 +2270,13 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D75" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E75">
-        <v>21.24452911290944</v>
+        <v>14.01797403864213</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2251,13 +2287,13 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D76" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E76">
-        <v>19.43534129152781</v>
+        <v>11.26542599903289</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2268,13 +2304,13 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D77" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E77">
-        <v>3.66393153959172</v>
+        <v>3.84412964654041</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2285,13 +2321,13 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D78" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E78">
-        <v>6.642625853533943</v>
+        <v>8.368501461601012</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2302,13 +2338,13 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D79" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E79">
-        <v>9.671419340245471</v>
+        <v>11.82718726538216</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2319,13 +2355,13 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D80" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E80">
-        <v>9.44613955690768</v>
+        <v>15.34738864443618</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2336,13 +2372,13 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D81" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E81">
-        <v>12.96606991267051</v>
+        <v>3.882362713641228</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2353,13 +2389,13 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D82" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E82">
-        <v>9.326576220130674</v>
+        <v>5.266435643013994</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2370,13 +2406,13 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D83" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E83">
-        <v>10.6326912105799</v>
+        <v>6.585769410891616</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2387,13 +2423,13 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D84" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E84">
-        <v>11.62311621672296</v>
+        <v>27.2962984177085</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2404,13 +2440,13 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D85" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E85">
-        <v>3.982992308151292</v>
+        <v>6.304858209897246</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2421,13 +2457,13 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D86" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E86">
-        <v>15.70887552091667</v>
+        <v>8.608349365082033</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2438,13 +2474,13 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D87" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E87">
-        <v>16.9451273976392</v>
+        <v>5.633600526403061</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2455,13 +2491,13 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D88" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E88">
-        <v>8.767699735543665</v>
+        <v>15.0623031392721</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2472,13 +2508,13 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D89" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E89">
-        <v>5.08637328812236</v>
+        <v>1.451640299093533</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2489,13 +2525,13 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D90" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E90">
-        <v>2.16340617902376</v>
+        <v>2.747155023029321</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2506,13 +2542,13 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D91" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E91">
-        <v>10.65257718594633</v>
+        <v>22.44039527618857</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2523,13 +2559,13 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D92" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E92">
-        <v>12.54714989381119</v>
+        <v>24.05740518001016</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2540,13 +2576,13 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D93" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E93">
-        <v>12.7078972932797</v>
+        <v>6.89165651955008</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2557,13 +2593,13 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D94" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E94">
-        <v>13.26896968236949</v>
+        <v>3.750561826781499</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2574,13 +2610,13 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D95" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E95">
-        <v>2.313721119329826</v>
+        <v>2.365839384108618</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2591,13 +2627,115 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D96" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E96">
-        <v>2.231249722709783</v>
+        <v>12.27825027396334</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" t="s">
+        <v>200</v>
+      </c>
+      <c r="D97" t="s">
+        <v>209</v>
+      </c>
+      <c r="E97">
+        <v>8.893825785986689</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" t="s">
+        <v>201</v>
+      </c>
+      <c r="D98" t="s">
+        <v>209</v>
+      </c>
+      <c r="E98">
+        <v>17.15417458568846</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" t="s">
+        <v>202</v>
+      </c>
+      <c r="D99" t="s">
+        <v>209</v>
+      </c>
+      <c r="E99">
+        <v>12.6616183006096</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" t="s">
+        <v>203</v>
+      </c>
+      <c r="D100" t="s">
+        <v>209</v>
+      </c>
+      <c r="E100">
+        <v>23.38238325058857</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101" t="s">
+        <v>204</v>
+      </c>
+      <c r="D101" t="s">
+        <v>209</v>
+      </c>
+      <c r="E101">
+        <v>5.745896631477438</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>104</v>
+      </c>
+      <c r="C102" t="s">
+        <v>205</v>
+      </c>
+      <c r="D102" t="s">
+        <v>209</v>
+      </c>
+      <c r="E102">
+        <v>8.491974621515567</v>
       </c>
     </row>
   </sheetData>
